--- a/public/documents/ConfirmedFacultyList.xlsx
+++ b/public/documents/ConfirmedFacultyList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24" count="24">
   <x:si>
     <x:t>sr_no</x:t>
   </x:si>
@@ -74,6 +74,18 @@
   </x:si>
   <x:si>
     <x:t>Gujarat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>harshit raal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xyz@123.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manus Manass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qwerty@123.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -503,6 +515,58 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="A3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/public/documents/ConfirmedFacultyList.xlsx
+++ b/public/documents/ConfirmedFacultyList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21" count="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="27">
   <x:si>
     <x:t>sr_no</x:t>
   </x:si>
@@ -478,19 +478,19 @@
     <x:t>9925127260</x:t>
   </x:si>
   <x:si>
-    <x:t>Naazeema Begum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>naazeema13@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7575057644</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140860106092</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Civil Engineering</x:t>
+    <x:t>Deepak Tiwari</x:t>
+  </x:si>
+  <x:si>
+    <x:t>deepaktiwari104@outlook.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7698887243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156910319513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mechanical Engineering (Diploma)</x:t>
   </x:si>
   <x:si>
     <x:t>086</x:t>
@@ -976,6 +976,672 @@
     <x:t>101</x:t>
   </x:si>
   <x:si>
+    <x:t>PRATIK MAKWANA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pratik.makwana@bapugkv.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9687924275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHANKERSINH VAGHELA BAPU INSTITUTE OF TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tailor hitesh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>er.tailorhitesh@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9898020792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIDYABHARTI TRUST, INSTITUTE OF TECHNOLOGY &amp; RESEARCH CENTRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maulik Chauhan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maulikchauhan85@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8980568909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dipak Rajgor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dipakrajgor3096@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7284812406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1310306047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>civil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OM INSTITUTE OF TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rushabh Shah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rashah.mech@spcevng.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8485998894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KUSH NAVINBHAI PATEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patelkush1205.kp@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9724849784</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130400119069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MECHANICAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANKALCHAND PATEL COLLEGE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>visnagar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Darshit Patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>darshit.ee@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9978495496</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Patel Harshkumar R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patelharsh9004@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7600658848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130800109523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VADODARA INSTITUTE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PIYUSH PATEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patel1341987@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9726213093</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAYESH MUKESHBHAI SOLANKI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>solankijayesh1717@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9033502940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146080319099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BHAGWAN MAHAVIR COLLEGE OF POLYTECHNIC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harshit P.  Bhavsar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>harshit.bhavsar@sal.edu.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9662966613</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shivam gautamkumar Rawal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shivam.rawal97@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9978114455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141130119091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mechanical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAL COLLEGE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Narendra Pokar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>narendrapokar@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8140659602</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HJD INSTITUTE OF TECHNICAL EDUCATION AND RESEARCH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kera</x:t>
+  </x:si>
+  <x:si>
+    <x:t>085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URVISHA PATEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patel.urvisha@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9537510810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HIREN MORE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hirenmore26@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7016486711</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150330131028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMPUTER SCIENCE &amp; ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHATMA GANDHI INSTITUTE OF TECHNICAL EDUCATION &amp; RESEARCH CENTRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nilesh Vadgama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vadgama.vgi@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9429081163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Matang D prabhat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>matangprabhat26@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9427272417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150920109001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARHAM VEERAYATAN INSTITUTE OF ENGINEERING, TECHNOLOGY &amp; RESEARCH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shradhdha Mehta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shradhdha.mehta@ckpcet.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9898332163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Darshan Purani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>techno31999@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7802013615</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160090119088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mechanical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C. K. PITHAWALLA COLLEGE OF ENGINEERING &amp; TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vivek Vyas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vjvyas@aits.edu.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9558955139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tejas Joshi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61014@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9714461014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165023693036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jitendra Patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jiturx@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9426362316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arth Pandya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>arthpandya@yahoo.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8000632111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142080290023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B Pharmacy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARIHANT SCHOOL OF PHARMACY &amp; BIO-RESEARCH INSTITUTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pinal Harde</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pinalharde@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9904050524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prem Bamania</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prem_bamania@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8734819210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142160290005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pharmacy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C. K. PITHAWALLA INSTITUTE OF PHARMACETICAL SCIENCE RESEARCH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salla Sanjay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sallasanjay@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9033300076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHRI LABHUBHAI TRIVEDI INSTITUTE OF ENGINEERING AND TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MUKESH PARMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mak_parmar41@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9737572954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A. Y. DADABHAI TECHNICAL INSTITUTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kosamba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Devendra Parmar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dvparmar@gardividyapith.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8128728882</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B. H. GARDI COLLEGE OF ENGINEERING &amp; TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PATEL NIKUNJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patelnikunj.008@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9638536637</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VALIA INSTITUTE OF TECHNOLOGY,VALIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bharuch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GAURAV GOHIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gohilgaurav534@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9099398539</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SARDAR PATEL COLLEGE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ajay.vani99@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8866081514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMAGE ENGG. &amp; TECHNICAL INSTITUTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kheda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>683</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMISH TANKARIYA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amish.tankariya@darshan.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9925045646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VASU KANERIYA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140540109043@darshan.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7405568765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140540109043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DARSHAN INSTITUTE OF ENGINEERING &amp; TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pranav Rajyaguru</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pranav.rajyaguru87@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9428468028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kanak kishan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kanakkishan1512@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8980795317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151300109008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NIRAVKUMAR KANTHARIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nbk.fetr@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9979145305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRANKADA KRUNALSINH MAYURSINH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>krunalprankada@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7874347800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140840109102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nandkishor Dadhania</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nrdadhania@omeducation.edu.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8140451999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GONDALIYA AKASHKUMAR RAMESHBHAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>akashgondaliya@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9408958611</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161023119026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OM ENGINEERING COLLEGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JIGISH RANA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jigish.rana1991@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9979209303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOVERNMENT POLYTECHNIC FOR GIRLS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hitesh Panchal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>engineerhitesh2000@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7874759079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ashal Siddharaj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ashalsiddhraj123@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8758043948</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140220106001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOVERNMENT ENGINEERING COLLEGE, PATAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harsh Shastri</x:t>
+  </x:si>
+  <x:si>
+    <x:t>er.hkshastri@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9998347221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lalaiya Jaydeep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lalaiyajaydeep@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8200080414</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150433119012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHANTILAL SHAH ENGINEERING COLLEGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bhavnagar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK SINGH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pksingh.me@kirc.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9638485812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joyal Pravasi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jvpravasi@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8866468971</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140260119132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KALOL INSTITUTE OF TECHNOLOGY &amp; RESEARCH CENTRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kalol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>026</x:t>
+  </x:si>
+  <x:si>
     <x:t>Pratiksha Trivedi</x:t>
   </x:si>
   <x:si>
@@ -985,676 +1651,25 @@
     <x:t>0940943524</x:t>
   </x:si>
   <x:si>
+    <x:t>Milin thakkar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>milinthakkar12@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9558370213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162130290057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B. Pharm</x:t>
+  </x:si>
+  <x:si>
     <x:t>BABARIA INSTITUTE OF PHARMACY</x:t>
   </x:si>
   <x:si>
     <x:t>213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRATIK MAKWANA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pratik.makwana@bapugkv.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9687924275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHANKERSINH VAGHELA BAPU INSTITUTE OF TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tailor hitesh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>er.tailorhitesh@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9898020792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VIDYABHARTI TRUST, INSTITUTE OF TECHNOLOGY &amp; RESEARCH CENTRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maulik Chauhan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>maulikchauhan85@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8980568909</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dipak Rajgor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dipakrajgor3096@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7284812406</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1310306047</x:t>
-  </x:si>
-  <x:si>
-    <x:t>civil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OM INSTITUTE OF TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rushabh Shah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rashah.mech@spcevng.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8485998894</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KUSH NAVINBHAI PATEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patelkush1205.kp@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9724849784</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130400119069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MECHANICAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SANKALCHAND PATEL COLLEGE OF ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>visnagar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Darshit Patel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>darshit.ee@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9978495496</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Patel Harshkumar R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patelharsh9004@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7600658848</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130800109523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VADODARA INSTITUTE OF ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>080</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PIYUSH PATEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patel1341987@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9726213093</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JAYESH MUKESHBHAI SOLANKI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>solankijayesh1717@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9033502940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146080319099</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BHAGWAN MAHAVIR COLLEGE OF POLYTECHNIC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Harshit P.  Bhavsar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>harshit.bhavsar@sal.edu.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9662966613</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shivam gautamkumar Rawal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shivam.rawal97@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9978114455</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141130119091</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mechanical</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAL COLLEGE OF ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Narendra Pokar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>narendrapokar@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8140659602</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HJD INSTITUTE OF TECHNICAL EDUCATION AND RESEARCH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kera</x:t>
-  </x:si>
-  <x:si>
-    <x:t>085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URVISHA PATEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patel.urvisha@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9537510810</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HIREN MORE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hirenmore26@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7016486711</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150330131028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COMPUTER SCIENCE &amp; ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAHATMA GANDHI INSTITUTE OF TECHNICAL EDUCATION &amp; RESEARCH CENTRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>033</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nilesh Vadgama</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vadgama.vgi@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9429081163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Matang D prabhat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>matangprabhat26@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9427272417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150920109001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARHAM VEERAYATAN INSTITUTE OF ENGINEERING, TECHNOLOGY &amp; RESEARCH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>092</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shradhdha Mehta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shradhdha.mehta@ckpcet.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9898332163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Darshan Purani</x:t>
-  </x:si>
-  <x:si>
-    <x:t>techno31999@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7802013615</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160090119088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mechanical</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C. K. PITHAWALLA COLLEGE OF ENGINEERING &amp; TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vivek Vyas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vjvyas@aits.edu.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9558955139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tejas Joshi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61014@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9714461014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165023693036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jitendra Patel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jiturx@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9426362316</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arth Pandya</x:t>
-  </x:si>
-  <x:si>
-    <x:t>arthpandya@yahoo.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8000632111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142080290023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B Pharmacy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARIHANT SCHOOL OF PHARMACY &amp; BIO-RESEARCH INSTITUTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pinal Harde</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pinalharde@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9904050524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prem Bamania</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prem_bamania@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8734819210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142160290005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pharmacy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C. K. PITHAWALLA INSTITUTE OF PHARMACETICAL SCIENCE RESEARCH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salla Sanjay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sallasanjay@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9033300076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHRI LABHUBHAI TRIVEDI INSTITUTE OF ENGINEERING AND TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>954</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MUKESH PARMAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mak_parmar41@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9737572954</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A. Y. DADABHAI TECHNICAL INSTITUTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kosamba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>601</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Devendra Parmar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dvparmar@gardividyapith.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8128728882</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B. H. GARDI COLLEGE OF ENGINEERING &amp; TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PATEL NIKUNJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patelnikunj.008@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9638536637</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VALIA INSTITUTE OF TECHNOLOGY,VALIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bharuch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>048</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GAURAV GOHIL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gohilgaurav534@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9099398539</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SARDAR PATEL COLLEGE OF ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ajay.vani99@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8866081514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IMAGE ENGG. &amp; TECHNICAL INSTITUTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kheda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>683</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMISH TANKARIYA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>amish.tankariya@darshan.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9925045646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VASU KANERIYA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140540109043@darshan.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7405568765</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140540109043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DARSHAN INSTITUTE OF ENGINEERING &amp; TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pranav Rajyaguru</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pranav.rajyaguru87@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9428468028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kanak kishan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kanakkishan1512@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8980795317</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151300109008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NIRAVKUMAR KANTHARIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nbk.fetr@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9979145305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRANKADA KRUNALSINH MAYURSINH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>krunalprankada@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7874347800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140840109102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nandkishor Dadhania</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nrdadhania@omeducation.edu.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8140451999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GONDALIYA AKASHKUMAR RAMESHBHAI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>akashgondaliya@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9408958611</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161023119026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OM ENGINEERING COLLEGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JIGISH RANA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jigish.rana1991@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9979209303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GOVERNMENT POLYTECHNIC FOR GIRLS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>615</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hitesh Panchal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>engineerhitesh2000@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7874759079</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ashal Siddharaj</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ashalsiddhraj123@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8758043948</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140220106001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GOVERNMENT ENGINEERING COLLEGE, PATAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Harsh Shastri</x:t>
-  </x:si>
-  <x:si>
-    <x:t>er.hkshastri@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9998347221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lalaiya Jaydeep</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lalaiyajaydeep@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8200080414</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150433119012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHANTILAL SHAH ENGINEERING COLLEGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bhavnagar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK SINGH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pksingh.me@kirc.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9638485812</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joyal Pravasi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jvpravasi@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8866468971</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140260119132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KALOL INSTITUTE OF TECHNOLOGY &amp; RESEARCH CENTRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kalol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>026</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3473,7 +3488,7 @@
         <x:v>323</x:v>
       </x:c>
       <x:c r="K50" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="L50" s="0" t="s">
         <x:v>324</x:v>
@@ -3499,7 +3514,7 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="K51" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L51" s="0" t="s">
         <x:v>329</x:v>
@@ -3521,14 +3536,29 @@
       <x:c r="D52" s="0" t="s">
         <x:v>332</x:v>
       </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
       <x:c r="J52" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="K52" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="L52" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
         <x:v>19</x:v>
@@ -3539,37 +3569,37 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="J53" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="K53" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="L53" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="M53" s="0" t="s">
         <x:v>19</x:v>
@@ -3580,37 +3610,37 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="H54" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="K54" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="L54" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
         <x:v>19</x:v>
@@ -3621,37 +3651,37 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="J55" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="K55" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L55" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="M55" s="0" t="s">
         <x:v>19</x:v>
@@ -3662,37 +3692,37 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="K56" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L56" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
         <x:v>19</x:v>
@@ -3703,37 +3733,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>376</x:v>
-      </x:c>
-      <x:c r="E57" s="0" t="s">
-        <x:v>377</x:v>
-      </x:c>
-      <x:c r="F57" s="0" t="s">
-        <x:v>378</x:v>
-      </x:c>
-      <x:c r="G57" s="0" t="s">
-        <x:v>379</x:v>
-      </x:c>
-      <x:c r="H57" s="0" t="s">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="I57" s="0" t="s">
         <x:v>381</x:v>
       </x:c>
       <x:c r="J57" s="0" t="s">
         <x:v>382</x:v>
       </x:c>
       <x:c r="K57" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="L57" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="M57" s="0" t="s">
         <x:v>19</x:v>
@@ -3744,22 +3759,37 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
+        <x:v>392</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="K58" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="L58" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
         <x:v>19</x:v>
@@ -3770,37 +3800,37 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="H59" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="J59" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="K59" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="L59" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="M59" s="0" t="s">
         <x:v>19</x:v>
@@ -3811,37 +3841,37 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="J60" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="K60" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L60" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="M60" s="0" t="s">
         <x:v>19</x:v>
@@ -3852,37 +3882,37 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="K61" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L61" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="M61" s="0" t="s">
         <x:v>19</x:v>
@@ -3893,37 +3923,37 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="H62" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="K62" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="L62" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="M62" s="0" t="s">
         <x:v>19</x:v>
@@ -3934,37 +3964,37 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="H63" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="J63" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="K63" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L63" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="M63" s="0" t="s">
         <x:v>19</x:v>
@@ -3975,34 +4005,19 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>439</x:v>
-      </x:c>
-      <x:c r="E64" s="0" t="s">
-        <x:v>440</x:v>
-      </x:c>
-      <x:c r="F64" s="0" t="s">
-        <x:v>441</x:v>
-      </x:c>
-      <x:c r="G64" s="0" t="s">
-        <x:v>442</x:v>
-      </x:c>
-      <x:c r="H64" s="0" t="s">
-        <x:v>443</x:v>
-      </x:c>
-      <x:c r="I64" s="0" t="s">
         <x:v>444</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
         <x:v>445</x:v>
       </x:c>
       <x:c r="K64" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L64" s="0" t="s">
         <x:v>446</x:v>
@@ -4028,10 +4043,10 @@
         <x:v>450</x:v>
       </x:c>
       <x:c r="K65" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="L65" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
         <x:v>19</x:v>
@@ -4042,19 +4057,19 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="K66" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L66" s="0" t="s">
         <x:v>457</x:v>
@@ -4080,10 +4095,10 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="K67" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="L67" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
         <x:v>19</x:v>
@@ -4094,19 +4109,19 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="K68" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="L68" s="0" t="s">
         <x:v>468</x:v>
@@ -4132,10 +4147,10 @@
         <x:v>472</x:v>
       </x:c>
       <x:c r="K69" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="L69" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="M69" s="0" t="s">
         <x:v>19</x:v>
@@ -4146,22 +4161,37 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s">
+        <x:v>229</x:v>
       </x:c>
       <x:c r="J70" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="K70" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L70" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="M70" s="0" t="s">
         <x:v>19</x:v>
@@ -4172,37 +4202,37 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="H71" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="J71" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K71" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="L71" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M71" s="0" t="s">
         <x:v>19</x:v>
@@ -4213,37 +4243,37 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="J72" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K72" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L72" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
         <x:v>19</x:v>
@@ -4254,37 +4284,37 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="H73" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="J73" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="K73" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="L73" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="M73" s="0" t="s">
         <x:v>19</x:v>
@@ -4295,34 +4325,19 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>505</x:v>
-      </x:c>
-      <x:c r="E74" s="0" t="s">
-        <x:v>506</x:v>
-      </x:c>
-      <x:c r="F74" s="0" t="s">
-        <x:v>507</x:v>
-      </x:c>
-      <x:c r="G74" s="0" t="s">
-        <x:v>508</x:v>
-      </x:c>
-      <x:c r="H74" s="0" t="s">
         <x:v>509</x:v>
-      </x:c>
-      <x:c r="I74" s="0" t="s">
-        <x:v>416</x:v>
       </x:c>
       <x:c r="J74" s="0" t="s">
         <x:v>510</x:v>
       </x:c>
       <x:c r="K74" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L74" s="0" t="s">
         <x:v>511</x:v>
@@ -4344,14 +4359,29 @@
       <x:c r="D75" s="0" t="s">
         <x:v>514</x:v>
       </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
       <x:c r="J75" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="K75" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="L75" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="M75" s="0" t="s">
         <x:v>19</x:v>
@@ -4362,37 +4392,37 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="J76" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="K76" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="L76" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
         <x:v>19</x:v>
@@ -4403,37 +4433,37 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="J77" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="K77" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="L77" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="M77" s="0" t="s">
         <x:v>19</x:v>
@@ -4444,37 +4474,37 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="H78" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="J78" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="K78" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="L78" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="M78" s="0" t="s">
         <x:v>19</x:v>

--- a/public/documents/ConfirmedFacultyList.xlsx
+++ b/public/documents/ConfirmedFacultyList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30" count="30">
   <x:si>
     <x:t>sr_no</x:t>
   </x:si>
